--- a/biology/Botanique/Calamagrostis_purpurea/Calamagrostis_purpurea.xlsx
+++ b/biology/Botanique/Calamagrostis_purpurea/Calamagrostis_purpurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamagrostis pourpre, Calamagrostide pourpre, Calamagrostide pourpre faux phragmite
-Calamagrostis purpurea est une espèce de plantes à fleurs de la famille des Poaceae et du genre Calamagrostis. Elle est connue en français sous les noms de Calamagrostide pourpre[1], de Calamagrostide pourpre faux phragmite[2] ou Calamagrostis pourpre[3].
+Calamagrostis purpurea est une espèce de plantes à fleurs de la famille des Poaceae et du genre Calamagrostis. Elle est connue en français sous les noms de Calamagrostide pourpre, de Calamagrostide pourpre faux phragmite ou Calamagrostis pourpre.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Calamagrostide pourpre mesure entre 30 cm et 1 m de haut. Il s'agit d'une plante à rhizome. Ses fleurs se présentent sous la forme de panicule qui sont généralement de couleur pourpre[1].
-Les anthères de la plante sont de couleur jaune[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Calamagrostide pourpre mesure entre 30 cm et 1 m de haut. Il s'agit d'une plante à rhizome. Ses fleurs se présentent sous la forme de panicule qui sont généralement de couleur pourpre.
+Les anthères de la plante sont de couleur jaune.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le calamagrostis pourpre pousse de manière générale dans les zones tempérés et boréales du globe.
-On retrouve principalement cette plante en Europe, en Asie ainsi qu'en Amérique du Nord[5].
+On retrouve principalement cette plante en Europe, en Asie ainsi qu'en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calamagrostis pourpre se développe généralement entre 1300 et 1550 m d'altitude. Cependant il est possible de la retrouver entre 1000 et 1730 m[4].
-On le retrouve dans des milieux de nature humide comme le bas des ravins ou les ensembles rocheux suintants[4]. Dans certains cas, l'espèce peut être trouvée dans les tourbières et à proximité des cours d'eau[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calamagrostis pourpre se développe généralement entre 1300 et 1550 m d'altitude. Cependant il est possible de la retrouver entre 1000 et 1730 m.
+On le retrouve dans des milieux de nature humide comme le bas des ravins ou les ensembles rocheux suintants. Dans certains cas, l'espèce peut être trouvée dans les tourbières et à proximité des cours d'eau.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en premier en 1824 par le botaniste Carl Bernhard Von Trinius, qui la classe dans le genre Calamagrostis[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier en 1824 par le botaniste Carl Bernhard Von Trinius, qui la classe dans le genre Calamagrostis.
 </t>
         </is>
       </c>
